--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -2,26 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbhatia\TAuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\TAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="4710" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="4710" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Pages" sheetId="4" r:id="rId1"/>
+    <sheet name="Portsafe" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Portsafe!$A$1:$J$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$H$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$1:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="163">
   <si>
     <t>TSID</t>
   </si>
@@ -600,9 +600,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>Browser: Open (test data)</t>
-  </si>
-  <si>
     <t>Caption/Text: Validate Text (locator value, test data)</t>
   </si>
   <si>
@@ -615,16 +612,76 @@
     <t>Key: Press (Enter/Return/Tab/Escape) (locator value, test data)</t>
   </si>
   <si>
-    <t>Browser: Clos</t>
-  </si>
-  <si>
     <t>Browser: Open (specify link under Test Data column)</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Web Page</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Username Textfield</t>
+  </si>
+  <si>
+    <t>Password Textfield</t>
+  </si>
+  <si>
+    <t>Login button</t>
+  </si>
+  <si>
+    <t>Login to Portsafe</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>ID Type</t>
+  </si>
+  <si>
+    <t>ID Value</t>
+  </si>
+  <si>
+    <t>//input[@id='ctl00_mainContent_loginControl_loginNameTextBox']</t>
+  </si>
+  <si>
+    <t>//input[@id='ctl00_mainContent_loginControl_passwordTextBox']</t>
+  </si>
+  <si>
+    <t>//input[@id='ctl00_mainContent_loginControl_loginButton']</t>
+  </si>
+  <si>
+    <t>test_automation_ff</t>
+  </si>
+  <si>
+    <t>Welcome2018!</t>
+  </si>
+  <si>
+    <t>https://portsafe-test.cmo-compliance.com/</t>
+  </si>
+  <si>
+    <t>Open Browser and go to URL</t>
+  </si>
+  <si>
+    <t>Enter Text</t>
+  </si>
+  <si>
+    <t>Click Button</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
   </numFmts>
@@ -1108,24 +1165,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,15 +1266,14 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="66" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" customWidth="1"/>
-    <col min="10" max="10" width="55" customWidth="1"/>
+    <col min="4" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="66" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" customWidth="1"/>
+    <col min="10" max="10" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>52</v>
       </c>
@@ -1154,84 +1286,133 @@
       <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="C3" s="17">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>138</v>
+        <v>160</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"ID, Xpath, Name, CssSelector"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <autoFilter ref="A1:J3"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="www.google.com"/>
+    <hyperlink ref="J2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Pages!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Pages!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1240,8 +1421,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1478,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1319,7 +1500,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>76</v>
@@ -1395,7 +1576,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>37</v>
@@ -1445,7 +1626,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>37</v>
@@ -1471,7 +1652,7 @@
         <v>57</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -1497,7 +1678,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>36</v>
@@ -1526,7 +1707,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>37</v>
@@ -1582,7 +1763,7 @@
         <v>57</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>36</v>
@@ -1611,7 +1792,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>37</v>
@@ -1640,7 +1821,7 @@
         <v>57</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>37</v>
@@ -1669,7 +1850,7 @@
         <v>57</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>37</v>
@@ -1698,7 +1879,7 @@
         <v>57</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>37</v>
@@ -1727,7 +1908,7 @@
         <v>57</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>37</v>
@@ -1756,7 +1937,7 @@
         <v>57</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>37</v>
@@ -1785,7 +1966,7 @@
         <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>96</v>
@@ -1814,7 +1995,7 @@
         <v>57</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>96</v>
@@ -1843,7 +2024,7 @@
         <v>57</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>37</v>
@@ -1872,7 +2053,7 @@
         <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>37</v>
@@ -1901,7 +2082,7 @@
         <v>57</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>37</v>
@@ -1974,7 +2155,7 @@
         <v>57</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
@@ -2020,7 +2201,7 @@
         <v>46</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>37</v>
@@ -2046,7 +2227,7 @@
         <v>41</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>37</v>
@@ -2072,7 +2253,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>37</v>
@@ -2098,7 +2279,7 @@
         <v>22</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>37</v>
@@ -2124,7 +2305,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>37</v>
@@ -2150,7 +2331,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>37</v>
@@ -2176,7 +2357,7 @@
         <v>46</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>37</v>
